--- a/URS/DbLayouts/L2-業務作業/FacProdAcctFee.xlsx
+++ b/URS/DbLayouts/L2-業務作業/FacProdAcctFee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468C90C-A3C5-410A-8AEC-45D9E0A610F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC992C5-5B46-4996-87AA-A0B9FF3CE35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,11 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>備註說明</t>
   </si>
@@ -155,14 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProdNo,LoanLow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProdNo =  ,AND LoanLow &gt;= ,AND LoanLow &lt;=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,6 +186,27 @@
   </si>
   <si>
     <t>FacProd(ProdNo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>費用類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:帳管費
+2:手續費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ProdNo = ,AND FeeType = ,AND LoanLow &gt;= ,AND LoanLow &lt;= </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdNo,FeeType,LoanLow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +474,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -826,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -844,12 +852,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>27</v>
@@ -859,8 +867,8 @@
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
@@ -872,12 +880,12 @@
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>16</v>
@@ -887,12 +895,12 @@
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>33</v>
@@ -902,10 +910,10 @@
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="6"/>
       <c r="D5" s="24"/>
       <c r="E5" s="16"/>
@@ -913,10 +921,10 @@
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="6"/>
       <c r="D6" s="24"/>
       <c r="E6" s="20"/>
@@ -924,10 +932,10 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="6"/>
       <c r="D7" s="24"/>
       <c r="E7" s="22"/>
@@ -968,34 +976,33 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3">
         <v>9</v>
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f t="shared" ref="A10:A16" si="0">A9+1</f>
+        <f t="shared" ref="A10:A17" si="0">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3">
-        <v>16</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -1003,13 +1010,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>16</v>
@@ -1019,19 +1026,19 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
@@ -1039,25 +1046,29 @@
       <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="27"/>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -1065,17 +1076,15 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="26">
-        <v>6</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E14" s="26"/>
       <c r="G14" s="9"/>
       <c r="H14" s="27"/>
     </row>
@@ -1085,37 +1094,57 @@
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="E15" s="26">
+        <v>6</v>
+      </c>
       <c r="G15" s="9"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="26">
-        <v>6</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E16" s="26"/>
       <c r="G16" s="9"/>
       <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="26">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1139,7 +1168,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1163,10 +1192,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
